--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1092,10 +1116,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1139,28 +1163,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="A35" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1185,28 +1209,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="3">
+      <c r="C37" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="3">
+      <c r="D37" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="3">
+      <c r="I37" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1613,10 +1637,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1660,28 +1684,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1706,28 +1730,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2105,10 +2129,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2152,28 +2176,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2198,28 +2222,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2655,10 +2679,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2702,28 +2726,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="3">
+      <c r="A89" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2748,28 +2772,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="3">
+      <c r="C91" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="3">
+      <c r="D91" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="3">
+      <c r="I91" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3031,10 +3055,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3078,28 +3102,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="3">
+      <c r="A102" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3124,28 +3148,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="3">
+      <c r="C104" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="3">
+      <c r="D104" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="3">
+      <c r="I104" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3349,10 +3373,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3396,28 +3420,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3442,28 +3466,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3638,10 +3662,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="3" t="s">
+      <c r="K121" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3685,28 +3709,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="3">
+      <c r="A123" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3731,28 +3755,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="3">
+      <c r="C125" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="3">
+      <c r="D125" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="3">
+      <c r="I125" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3985,10 +4009,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4032,28 +4056,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4303,10 +4327,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4350,28 +4374,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
+      <c r="C146" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="3">
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4396,28 +4420,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4505,10 +4529,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="3" t="s">
+      <c r="K151" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
